--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,6 +43596,43 @@
         <v>134700</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>79900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>79900</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43738,6 +43738,43 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43775,6 +43775,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43812,6 +43812,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43849,6 +43849,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43886,6 +43886,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>257000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43921,6 +43921,43 @@
         <v>257000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43958,6 +43958,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>32300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43993,6 +43993,43 @@
         <v>32300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44030,6 +44030,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44067,6 +44067,80 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44141,6 +44141,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44178,6 +44178,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44215,6 +44215,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44252,6 +44252,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>30200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44287,6 +44287,80 @@
         <v>30200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44361,6 +44361,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44398,6 +44398,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2416"/>
+  <dimension ref="A1:I2417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85978,6 +85978,41 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2417" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2417" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2417" t="n">
+        <v>9300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2417"/>
+  <dimension ref="A1:I2418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86013,6 +86013,41 @@
         <v>9300</v>
       </c>
     </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2418" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2418" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2418" t="n">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2418"/>
+  <dimension ref="A1:I2419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86048,6 +86048,43 @@
         <v>5200</v>
       </c>
     </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2419" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2419" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2419" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2419"/>
+  <dimension ref="A1:I2420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86085,6 +86085,43 @@
         </is>
       </c>
     </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2420" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2420" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2420" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2420"/>
+  <dimension ref="A1:I2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86122,6 +86122,43 @@
         </is>
       </c>
     </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2421" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2421" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2421"/>
+  <dimension ref="A1:I2422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86159,6 +86159,41 @@
         </is>
       </c>
     </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2422" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2422" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2422" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2422" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2422"/>
+  <dimension ref="A1:I2423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86194,6 +86194,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2423" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2423" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2423" t="n">
+        <v>61100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2423"/>
+  <dimension ref="A1:I2424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86229,6 +86229,41 @@
         <v>61100</v>
       </c>
     </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2424" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2424" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2424" t="n">
+        <v>4600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86264,6 +86264,43 @@
         <v>4600</v>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2425" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86301,6 +86301,41 @@
         </is>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2426" t="n">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2426"/>
+  <dimension ref="A1:I2427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86336,6 +86336,43 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2427" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2427" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2427"/>
+  <dimension ref="A1:I2428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86373,6 +86373,43 @@
         </is>
       </c>
     </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2428" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2428" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86410,6 +86410,41 @@
         </is>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2429" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86445,6 +86445,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2430" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8362.xlsx
+++ b/data/8362.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86480,6 +86480,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>KYM</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2431" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
